--- a/02_MasterWifoMannheim/99_Backup/Course151.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course151.xlsx
@@ -1,139 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_2B59D2BFD32051265F5928115992A0F44F13F9DE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3150ACDF-3526-4ADD-B6E7-E86BF053220F}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>MKT 664 Brand Strategy Seminar</t>
-  </si>
-  <si>
-    <t>Contents</t>
-  </si>
-  <si>
-    <t>Although brand names represent one of the most valuable (intangible) assets for a firm, creating and nurturing a strong brand poses considerable challenges. Branding is therefore a critical management task that has both strategic and tactical elements. The seminar brand strategy involves the design and implementation of a marketing program to establish in a strategic way an existing brand in a new product category or subcategory. During the seminar we will discuss topics such as the product design, product positioning and product advertising of a new product which extends an existing brand and follows the umbrella brand identity and umbrella brand vision. This seminar will be useful for those pursuing careers in marketing, general management, and consulting.</t>
-  </si>
-  <si>
-    <t>Learning outcomes</t>
-  </si>
-  <si>
-    <t>Learning objectives of this course comprise the design and positioning of a branded product and the strategic brand extension of a well-established global brand. objectives are writing a marketing plan, design of a specific product advertisement as well as the presentation of the results to managers of a global company.</t>
-  </si>
-  <si>
-    <t>Prerequisites</t>
-  </si>
-  <si>
-    <t>Obligatory registration</t>
-  </si>
-  <si>
-    <t>Further Information on the registration:Website of the chair</t>
-  </si>
-  <si>
-    <t>Courses Hours per week Self-study Seminar 1 3</t>
-  </si>
-  <si>
-    <t>ECTS</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Form of assessment</t>
-  </si>
-  <si>
-    <t>Team Seminar Paper (70%) and Team Presentation (30%)</t>
-  </si>
-  <si>
-    <t>Preliminary course work -</t>
-  </si>
-  <si>
-    <t>Lecturer/Person in charge</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Florian Stahl</t>
-  </si>
-  <si>
-    <t>Duration of module</t>
-  </si>
-  <si>
-    <t>Block course within the semester</t>
-  </si>
-  <si>
-    <t>Offering</t>
-  </si>
-  <si>
-    <t>Fall semester</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Program-specific educational goals</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>graded</t>
-  </si>
-  <si>
-    <t>Range of application</t>
-  </si>
-  <si>
-    <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Econ., M.A. K&amp;W, LL.M.</t>
-  </si>
-  <si>
-    <t>Benötigte Kurse</t>
-  </si>
-  <si>
-    <t>MKT 663</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -148,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -472,148 +420,217 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" t="s">
-        <v>27</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MKT 664 Brand Strategy Seminar</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Contents</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Although brand names represent one of the most valuable (intangible) assets for a firm, creating and nurturing a strong brand poses considerable challenges. Branding is therefore a critical management task that has both strategic and tactical elements. The seminar brand strategy involves the design and implementation of a marketing program to establish in a strategic way an existing brand in a new product category or subcategory. During the seminar we will discuss topics such as the product design, product positioning and product advertising of a new product which extends an existing brand and follows the umbrella brand identity and umbrella brand vision. This seminar will be useful for those pursuing careers in marketing, general management, and consulting.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Learning outcomes</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Learning objectives of this course comprise the design and positioning of a branded product and the strategic brand extension of a well-established global brand. objectives are writing a marketing plan, design of a specific product advertisement as well as the presentation of the results to managers of a global company.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Benötigte Kurse</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>MKT 663</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Prerequisites</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>MKT 663</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Obligatory registration</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Further Information on the registration:Website of the chair</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Courses Hours per week Self-study Seminar 1 3</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ECTS</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Form of assessment</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Team Seminar Paper (70%) and Team Presentation (30%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Preliminary course work -</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Lecturer/Person in charge</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Prof. Dr. Florian Stahl</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Duration of module</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Block course within the semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Offering</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>FWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Program-specific educational goals</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>graded</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Range of application</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Econ., M.A. K&amp;W, LL.M.</t>
+        </is>
       </c>
     </row>
   </sheetData>
